--- a/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
+++ b/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
@@ -16,21 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>appendChild</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>innerHTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>once add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,11 +63,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simple DOM（5000个）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tree DOM（500个）</t>
+    <t>Simple DOM（5000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree DOM（500）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司的PC CPU[Intel E2180 2.00G] 内存2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +120,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +157,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,28 +212,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,258 +548,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1213.9000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1245.3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1646.8</v>
+      </c>
+      <c r="E5" s="13">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>169</v>
+      </c>
+      <c r="H5" s="15">
+        <v>226.5</v>
+      </c>
+      <c r="I5" s="13">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1136</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1198.3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1639.1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>273.3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>167.2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>207.7</v>
+      </c>
+      <c r="I6" s="13">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1061</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1109.4000000000001</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1460.9</v>
+      </c>
+      <c r="E7" s="13">
+        <v>221.9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>132.9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>168.8</v>
+      </c>
+      <c r="I7" s="13">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>351.4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>224.1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="E8" s="13">
+        <v>196</v>
+      </c>
+      <c r="F8" s="7">
+        <v>181.5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>138.5</v>
+      </c>
+      <c r="H8" s="16">
+        <v>222.4</v>
+      </c>
+      <c r="I8" s="14">
+        <v>66.5</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1879.8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1890.8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1881.3</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5068.6000000000004</v>
-      </c>
-      <c r="F4" s="1">
-        <v>267.2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>268.8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>255</v>
-      </c>
-      <c r="I4" s="1">
-        <v>148.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1796.8</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1865.8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1868.6</v>
-      </c>
-      <c r="E5" s="9">
-        <v>4756.3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>243.7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>267.10000000000002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>283.60000000000002</v>
-      </c>
-      <c r="I5" s="1">
-        <v>151.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1640.4</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1642.3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1568.8</v>
-      </c>
-      <c r="E6" s="9">
-        <v>859.2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>235.8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>219</v>
-      </c>
-      <c r="H6" s="1">
-        <v>211</v>
-      </c>
-      <c r="I6" s="1">
-        <v>74.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>86.6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>76.2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>169.4</v>
-      </c>
-      <c r="E9" s="9">
-        <v>197.9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>25.7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>23.7</v>
-      </c>
-      <c r="I9" s="1">
-        <v>190.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1">
+      <c r="B9" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="D9" s="15">
+        <v>135.6</v>
+      </c>
+      <c r="E9" s="13">
+        <v>39.4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H9" s="15">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I9" s="13">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="C10" s="13">
+        <v>41.4</v>
+      </c>
+      <c r="D10" s="15">
+        <v>101.3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>54.9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="I10" s="15">
+        <v>132.69999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>61.1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>98.5</v>
+      </c>
+      <c r="E11" s="13">
+        <v>51.1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>25.6</v>
+      </c>
+      <c r="G11" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="I11" s="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="D12" s="15">
+        <v>165.7</v>
+      </c>
+      <c r="E12" s="13">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1854</v>
+      </c>
+      <c r="G12" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1821.3</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5.6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
+++ b/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>appendChild</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +87,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>single</t>
+    <t>Chrome 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里的PC CPU[Intel E8400 3.00G] 内存4G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +99,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +119,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -121,15 +136,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,12 +174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,53 +223,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,324 +565,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1213.9000000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1245.3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1646.8</v>
+      </c>
+      <c r="E5" s="11">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="G5" s="9">
+        <v>169</v>
+      </c>
+      <c r="H5" s="10">
+        <v>226.5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1136</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1198.3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1639.1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>273.3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>167.2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>207.7</v>
+      </c>
+      <c r="I6" s="11">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1061</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1109.4000000000001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1460.9</v>
+      </c>
+      <c r="E7" s="11">
+        <v>221.9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>132.9</v>
+      </c>
+      <c r="G7" s="9">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <v>168.8</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>351.4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>224.1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="E8" s="11">
+        <v>196</v>
+      </c>
+      <c r="F8" s="13">
+        <v>181.5</v>
+      </c>
+      <c r="G8" s="13">
+        <v>138.5</v>
+      </c>
+      <c r="H8" s="14">
+        <v>222.4</v>
+      </c>
+      <c r="I8" s="15">
+        <v>66.5</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>84.7</v>
+      </c>
+      <c r="C9" s="12">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="D9" s="10">
+        <v>135.6</v>
+      </c>
+      <c r="E9" s="11">
+        <v>39.4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I9" s="11">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>46.9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>41.4</v>
+      </c>
+      <c r="D10" s="10">
+        <v>101.3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>54.9</v>
+      </c>
+      <c r="F10" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="G10" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>18.2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>132.69999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>61.1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>81.5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>98.5</v>
+      </c>
+      <c r="E11" s="11">
+        <v>51.1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>25.6</v>
+      </c>
+      <c r="G11" s="12">
+        <v>29.1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>26.3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="C12" s="12">
+        <v>84.6</v>
+      </c>
+      <c r="D12" s="10">
+        <v>165.7</v>
+      </c>
+      <c r="E12" s="11">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1854</v>
+      </c>
+      <c r="G12" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1821.3</v>
+      </c>
+      <c r="I12" s="11">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12">
+        <v>706.2</v>
+      </c>
+      <c r="C20" s="12">
+        <v>726.6</v>
+      </c>
+      <c r="D20" s="10">
+        <v>892.1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>137.4</v>
+      </c>
+      <c r="F20" s="12">
+        <v>85.9</v>
+      </c>
+      <c r="G20" s="12">
+        <v>93.7</v>
+      </c>
+      <c r="H20" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="I20" s="11">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="12">
+        <v>670.2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>695.5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>923.5</v>
+      </c>
+      <c r="E21" s="11">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="F21" s="12">
+        <v>78</v>
+      </c>
+      <c r="G21" s="12">
+        <v>93.7</v>
+      </c>
+      <c r="H21" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="I21" s="11">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="12">
+        <v>614</v>
+      </c>
+      <c r="C22" s="12">
+        <v>645.29999999999995</v>
+      </c>
+      <c r="D22" s="10">
+        <v>768.9</v>
+      </c>
+      <c r="E22" s="11">
+        <v>115.5</v>
+      </c>
+      <c r="F22" s="12">
+        <v>78</v>
+      </c>
+      <c r="G22" s="12">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="H22" s="10">
+        <v>87.6</v>
+      </c>
+      <c r="I22" s="11">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12">
+        <v>200.3</v>
+      </c>
+      <c r="C23" s="12">
+        <v>139.6</v>
+      </c>
+      <c r="D23" s="10">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="E23" s="11">
+        <v>120.1</v>
+      </c>
+      <c r="F23" s="13">
+        <v>103.9</v>
+      </c>
+      <c r="G23" s="13">
+        <v>83.3</v>
+      </c>
+      <c r="H23" s="14">
+        <v>114.3</v>
+      </c>
+      <c r="I23" s="15">
+        <v>40</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="12">
+        <v>47.8</v>
+      </c>
+      <c r="C24" s="12">
+        <v>36.1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>74</v>
+      </c>
+      <c r="E24" s="11">
+        <v>17.7</v>
+      </c>
+      <c r="F24" s="12">
+        <v>16</v>
+      </c>
+      <c r="G24" s="12">
+        <v>6.6</v>
+      </c>
+      <c r="H24" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="I24" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="B25" s="12">
+        <v>35.9</v>
+      </c>
+      <c r="C25" s="11">
+        <v>24.9</v>
+      </c>
+      <c r="D25" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>42.1</v>
+      </c>
+      <c r="F25" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="G25" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="H25" s="12">
+        <v>15.6</v>
+      </c>
+      <c r="I25" s="10">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>34.1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>60.2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>27.6</v>
+      </c>
+      <c r="F26" s="11">
+        <v>13.1</v>
+      </c>
+      <c r="G26" s="12">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1213.9000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1245.3</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1646.8</v>
-      </c>
-      <c r="E5" s="13">
-        <v>256.10000000000002</v>
-      </c>
-      <c r="F5" s="1">
-        <v>151.69999999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>169</v>
-      </c>
-      <c r="H5" s="15">
-        <v>226.5</v>
-      </c>
-      <c r="I5" s="13">
-        <v>78.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1136</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1198.3</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1639.1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>273.3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>143.80000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>167.2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>207.7</v>
-      </c>
-      <c r="I6" s="13">
-        <v>76.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1061</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1109.4000000000001</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1460.9</v>
-      </c>
-      <c r="E7" s="13">
-        <v>221.9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>132.9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>142.19999999999999</v>
-      </c>
-      <c r="H7" s="15">
-        <v>168.8</v>
-      </c>
-      <c r="I7" s="13">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>351.4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>224.1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>568.20000000000005</v>
-      </c>
-      <c r="E8" s="13">
-        <v>196</v>
-      </c>
-      <c r="F8" s="7">
-        <v>181.5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>138.5</v>
-      </c>
-      <c r="H8" s="16">
-        <v>222.4</v>
-      </c>
-      <c r="I8" s="14">
-        <v>66.5</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>84.7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D9" s="15">
-        <v>135.6</v>
-      </c>
-      <c r="E9" s="13">
-        <v>39.4</v>
-      </c>
-      <c r="F9" s="4">
-        <v>30</v>
-      </c>
-      <c r="G9" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H9" s="15">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="I9" s="13">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>46.9</v>
-      </c>
-      <c r="C10" s="13">
-        <v>41.4</v>
-      </c>
-      <c r="D10" s="15">
-        <v>101.3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>54.9</v>
-      </c>
-      <c r="F10" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="G10" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="I10" s="15">
-        <v>132.69999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4">
-        <v>61.1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>81.5</v>
-      </c>
-      <c r="D11" s="15">
-        <v>98.5</v>
-      </c>
-      <c r="E11" s="13">
-        <v>51.1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>25.6</v>
-      </c>
-      <c r="G11" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="I11" s="15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="H26" s="12">
+        <v>16.5</v>
+      </c>
+      <c r="I26" s="10">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="C12" s="3">
-        <v>84.6</v>
-      </c>
-      <c r="D12" s="15">
-        <v>165.7</v>
-      </c>
-      <c r="E12" s="13">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1854</v>
-      </c>
-      <c r="G12" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1821.3</v>
-      </c>
-      <c r="I12" s="13">
-        <v>5.6</v>
+      <c r="B27" s="10">
+        <v>67.5</v>
+      </c>
+      <c r="C27" s="12">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D27" s="12">
+        <v>64.2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>17.3</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="G27" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1246.5</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -876,7 +1204,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
+++ b/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210"/>
+    <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="append &amp; inner" sheetId="1" r:id="rId1"/>
+    <sheet name="event &amp; delegate" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>appendChild</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>家里的PC CPU[Intel E8400 3.00G] 内存4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event（5000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate（5000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +154,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -219,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +250,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,32 +289,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -585,300 +612,300 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1213.9000000000001</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>1245.3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>1646.8</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>256.10000000000002</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>151.69999999999999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>169</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>226.5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>78.2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>1136</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>1198.3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1639.1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>273.3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>143.80000000000001</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>167.2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>207.7</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>76.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>1061</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>1109.4000000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>1460.9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>221.9</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>132.9</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>142.19999999999999</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>168.8</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>45.3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>351.4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>224.1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>568.20000000000005</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>196</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>181.5</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>138.5</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="11">
         <v>222.4</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <v>66.5</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>84.7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>70.099999999999994</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>135.6</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>39.4</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>30</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>16.100000000000001</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>37.799999999999997</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <v>9.6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>46.9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>41.4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>101.3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>54.9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>16.8</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>10.5</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>18.2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>132.69999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>61.1</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>81.5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>98.5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>51.1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>25.6</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>29.1</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>26.3</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>156.30000000000001</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>84.6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>165.7</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>35.700000000000003</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>1854</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>19.5</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <v>1821.3</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>5.6</v>
       </c>
     </row>
@@ -888,305 +915,312 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>706.2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>726.6</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>892.1</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>137.4</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>85.9</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="9">
         <v>93.7</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <v>103.2</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>42.2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>670.2</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>695.5</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>923.5</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>148.69999999999999</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>78</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>93.7</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="7">
         <v>109.3</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>46.9</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>614</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>645.29999999999995</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>768.9</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>115.5</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>78</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="9">
         <v>79.599999999999994</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="7">
         <v>87.6</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>28.1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>200.3</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>139.6</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>298.60000000000002</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>120.1</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <v>103.9</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="10">
         <v>83.3</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <v>114.3</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>40</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>47.8</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>36.1</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>74</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>17.7</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <v>16</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <v>6.6</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <v>19.3</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="8">
         <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>35.9</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>24.9</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>103.2</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>42.1</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>7.8</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="8">
         <v>6.3</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9">
         <v>15.6</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="7">
         <v>64.2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>27.1</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <v>34.1</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <v>60.2</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>27.6</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>13.1</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="9">
         <v>17</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="9">
         <v>16.5</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="7">
         <v>40.9</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>67.5</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <v>39.200000000000003</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>64.2</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>17.3</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="9">
         <v>1191.5999999999999</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="9">
         <v>7.9</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="7">
         <v>1246.5</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>2.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:I17"/>
@@ -1194,13 +1228,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1210,14 +1237,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.125" style="19" customWidth="1"/>
+    <col min="2" max="3" width="17.5" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="42" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" s="18" customFormat="1" ht="12"/>
+    <row r="12" spans="1:3" s="18" customFormat="1" ht="12"/>
+    <row r="13" spans="1:3" s="18" customFormat="1" ht="12"/>
+    <row r="14" spans="1:3" s="18" customFormat="1" ht="12">
+      <c r="A14" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="18" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="20">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="C16" s="20">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20">
+        <v>336</v>
+      </c>
+      <c r="C17" s="20">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="20">
+        <v>222.9</v>
+      </c>
+      <c r="C18" s="20">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="20">
+        <v>88.9</v>
+      </c>
+      <c r="C19" s="20">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="20">
+        <v>28.9</v>
+      </c>
+      <c r="C20" s="20">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="20">
+        <v>44.3</v>
+      </c>
+      <c r="C21" s="20">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20">
+        <v>27.4</v>
+      </c>
+      <c r="C22" s="20">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20">
+        <v>39.5</v>
+      </c>
+      <c r="C23" s="20">
+        <v>11.8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
+++ b/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="event &amp; delegate" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -277,26 +277,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,43 +612,43 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
@@ -915,43 +915,43 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1214,6 +1214,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -1221,13 +1228,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1240,22 +1240,22 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="19" customWidth="1"/>
-    <col min="2" max="3" width="17.5" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="18.125" style="15" customWidth="1"/>
+    <col min="2" max="3" width="17.5" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="42" customHeight="1">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="42" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1266,71 +1266,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="3" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B3" s="16">
+        <v>648.29999999999995</v>
+      </c>
+      <c r="C3" s="16">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B4" s="16">
+        <v>743.8</v>
+      </c>
+      <c r="C4" s="16">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B5" s="16">
+        <v>407.5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B6" s="16">
+        <v>148.9</v>
+      </c>
+      <c r="C6" s="16">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B7" s="16">
+        <v>73.3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B8" s="16">
+        <v>83.2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B9" s="16">
+        <v>58</v>
+      </c>
+      <c r="C9" s="16">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" s="18" customFormat="1" ht="12"/>
-    <row r="12" spans="1:3" s="18" customFormat="1" ht="12"/>
-    <row r="13" spans="1:3" s="18" customFormat="1" ht="12"/>
-    <row r="14" spans="1:3" s="18" customFormat="1" ht="12">
-      <c r="A14" s="18" t="s">
+      <c r="B10" s="16">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C10" s="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="14" customFormat="1" ht="12"/>
+    <row r="12" spans="1:3" s="14" customFormat="1" ht="12"/>
+    <row r="13" spans="1:3" s="14" customFormat="1" ht="12"/>
+    <row r="14" spans="1:3" s="14" customFormat="1" ht="12">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" ht="45.75" customHeight="1">
+    <row r="15" spans="1:3" s="14" customFormat="1" ht="45.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1341,91 +1373,91 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="16" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>326.39999999999998</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>57.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="17" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <v>336</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>62.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="18" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <v>222.9</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>62.6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="19" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <v>88.9</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>39.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="20" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <v>28.9</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>8.4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="21" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <v>44.3</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>28.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="22" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <v>27.4</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="17.25" customHeight="1">
+    <row r="23" spans="1:3" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <v>39.5</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>11.8</v>
       </c>
     </row>

--- a/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
+++ b/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="append &amp; inner" sheetId="1" r:id="rId1"/>
     <sheet name="event &amp; delegate" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="zTree v2.5 &amp; v2.6" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="27">
   <si>
     <t>appendChild</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,30 @@
     <t>delegate（5000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Root Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery.ztree-v2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery.ztree-v2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +190,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +237,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -228,13 +267,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,13 +391,70 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +754,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -612,43 +771,43 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
@@ -915,43 +1074,43 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="20" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1214,6 +1373,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:I17"/>
@@ -1221,13 +1387,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1239,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1470,13 +1629,1009 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="9" width="8.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="L2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
+    </row>
+    <row r="3" spans="1:21" ht="34.5" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="L3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+    </row>
+    <row r="4" spans="1:21" ht="34.5" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="17">
+        <v>500</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="18">
+        <v>50</v>
+      </c>
+      <c r="F4" s="18">
+        <v>100</v>
+      </c>
+      <c r="G4" s="18">
+        <v>500</v>
+      </c>
+      <c r="H4" s="31">
+        <v>500</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="31">
+        <v>2000</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="17">
+        <v>500</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P4" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>100</v>
+      </c>
+      <c r="R4" s="18">
+        <v>500</v>
+      </c>
+      <c r="S4" s="31">
+        <v>500</v>
+      </c>
+      <c r="T4" s="31">
+        <v>1000</v>
+      </c>
+      <c r="U4" s="31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1">
+      <c r="A17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="L17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="38"/>
+    </row>
+    <row r="18" spans="1:21" ht="34.5" customHeight="1">
+      <c r="A18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="L18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+    </row>
+    <row r="19" spans="1:21" ht="34.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="17">
+        <v>500</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="18">
+        <v>50</v>
+      </c>
+      <c r="F19" s="18">
+        <v>100</v>
+      </c>
+      <c r="G19" s="18">
+        <v>500</v>
+      </c>
+      <c r="H19" s="31">
+        <v>500</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="31">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="17">
+        <v>500</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1000</v>
+      </c>
+      <c r="O19" s="17">
+        <v>2000</v>
+      </c>
+      <c r="P19" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>100</v>
+      </c>
+      <c r="R19" s="18">
+        <v>500</v>
+      </c>
+      <c r="S19" s="31">
+        <v>500</v>
+      </c>
+      <c r="T19" s="31">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9">
+        <v>10648.4</v>
+      </c>
+      <c r="C20" s="9">
+        <v>40748.5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>185540.8</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1003.3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2248.5</v>
+      </c>
+      <c r="G20" s="9">
+        <v>41698.6</v>
+      </c>
+      <c r="H20" s="9">
+        <v>16489.099999999999</v>
+      </c>
+      <c r="I20" s="9">
+        <v>44101.7</v>
+      </c>
+      <c r="J20" s="9">
+        <v>195949.9</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="23">
+        <v>1069</v>
+      </c>
+      <c r="N20" s="23">
+        <v>2803.1</v>
+      </c>
+      <c r="O20" s="23">
+        <v>8848.5</v>
+      </c>
+      <c r="P20" s="23">
+        <v>659.4</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>2242.5</v>
+      </c>
+      <c r="R20" s="23">
+        <v>18237.8</v>
+      </c>
+      <c r="S20" s="23">
+        <v>2239</v>
+      </c>
+      <c r="T20" s="23">
+        <v>5295.4</v>
+      </c>
+      <c r="U20" s="23">
+        <v>10145.200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3241.9</v>
+      </c>
+      <c r="C21" s="9">
+        <v>12817.3</v>
+      </c>
+      <c r="D21" s="9">
+        <v>81042.2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>248.5</v>
+      </c>
+      <c r="F21" s="9">
+        <v>665.7</v>
+      </c>
+      <c r="G21" s="9">
+        <v>28667.200000000001</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3314</v>
+      </c>
+      <c r="I21" s="9">
+        <v>16223.3</v>
+      </c>
+      <c r="J21" s="9">
+        <v>103146.8</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="23">
+        <v>528.20000000000005</v>
+      </c>
+      <c r="N21" s="23">
+        <v>1637.7</v>
+      </c>
+      <c r="O21" s="23">
+        <v>7515.5</v>
+      </c>
+      <c r="P21" s="23">
+        <v>50.1</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>126.6</v>
+      </c>
+      <c r="R21" s="23">
+        <v>1624.9</v>
+      </c>
+      <c r="S21" s="23">
+        <v>465.9</v>
+      </c>
+      <c r="T21" s="23">
+        <v>1137.4000000000001</v>
+      </c>
+      <c r="U21" s="23">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3206.2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10988.8</v>
+      </c>
+      <c r="D22" s="9">
+        <v>56832.9</v>
+      </c>
+      <c r="E22" s="9">
+        <v>245.2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>662.5</v>
+      </c>
+      <c r="G22" s="9">
+        <v>31303.3</v>
+      </c>
+      <c r="H22" s="9">
+        <v>3378.1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>11954.6</v>
+      </c>
+      <c r="J22" s="9">
+        <v>69542.2</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="23">
+        <v>448.5</v>
+      </c>
+      <c r="N22" s="23">
+        <v>1501.7</v>
+      </c>
+      <c r="O22" s="23">
+        <v>7228.2</v>
+      </c>
+      <c r="P22" s="23">
+        <v>43.8</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>114.1</v>
+      </c>
+      <c r="R22" s="23">
+        <v>1557.8</v>
+      </c>
+      <c r="S22" s="23">
+        <v>459.3</v>
+      </c>
+      <c r="T22" s="23">
+        <v>896.8</v>
+      </c>
+      <c r="U22" s="23">
+        <v>3217.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9">
+        <v>615.4</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1236.3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2467.8000000000002</v>
+      </c>
+      <c r="E23" s="9">
+        <v>77.2</v>
+      </c>
+      <c r="F23" s="23">
+        <v>172.8</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1983.3</v>
+      </c>
+      <c r="H23" s="23">
+        <v>609.1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1221.8</v>
+      </c>
+      <c r="J23" s="23">
+        <v>2501.5</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="23">
+        <v>229.2</v>
+      </c>
+      <c r="N23" s="23">
+        <v>473.8</v>
+      </c>
+      <c r="O23" s="23">
+        <v>942.8</v>
+      </c>
+      <c r="P23" s="23">
+        <v>30.3</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>88</v>
+      </c>
+      <c r="R23" s="10">
+        <v>510.8</v>
+      </c>
+      <c r="S23" s="23">
+        <v>231.9</v>
+      </c>
+      <c r="T23" s="23">
+        <v>478.5</v>
+      </c>
+      <c r="U23" s="23">
+        <v>931.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="9">
+        <v>353.9</v>
+      </c>
+      <c r="C24" s="9">
+        <v>706</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1402.6</v>
+      </c>
+      <c r="E24" s="9">
+        <v>44.8</v>
+      </c>
+      <c r="F24" s="9">
+        <v>92.8</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="9">
+        <v>345.8</v>
+      </c>
+      <c r="I24" s="9">
+        <v>693.4</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1397.8</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="23">
+        <v>82.7</v>
+      </c>
+      <c r="N24" s="23">
+        <v>167</v>
+      </c>
+      <c r="O24" s="23">
+        <v>336.4</v>
+      </c>
+      <c r="P24" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>21</v>
+      </c>
+      <c r="R24" s="10">
+        <v>195</v>
+      </c>
+      <c r="S24" s="23">
+        <v>79.3</v>
+      </c>
+      <c r="T24" s="23">
+        <v>157.1</v>
+      </c>
+      <c r="U24" s="23">
+        <v>312.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9">
+        <v>229.4</v>
+      </c>
+      <c r="C25" s="9">
+        <v>452.5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>910.2</v>
+      </c>
+      <c r="E25" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>45.9</v>
+      </c>
+      <c r="G25" s="9">
+        <v>337.3</v>
+      </c>
+      <c r="H25" s="9">
+        <v>245.1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>498.9</v>
+      </c>
+      <c r="J25" s="9">
+        <v>860.9</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="23">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="N25" s="23">
+        <v>137</v>
+      </c>
+      <c r="O25" s="23">
+        <v>292</v>
+      </c>
+      <c r="P25" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>19</v>
+      </c>
+      <c r="R25" s="23">
+        <v>365.9</v>
+      </c>
+      <c r="S25" s="23">
+        <v>72.5</v>
+      </c>
+      <c r="T25" s="23">
+        <v>137.5</v>
+      </c>
+      <c r="U25" s="23">
+        <v>300.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9">
+        <v>241.9</v>
+      </c>
+      <c r="C26" s="9">
+        <v>494.3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1022.1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>28.8</v>
+      </c>
+      <c r="F26" s="9">
+        <v>56.5</v>
+      </c>
+      <c r="G26" s="9">
+        <v>369.4</v>
+      </c>
+      <c r="H26" s="9">
+        <v>249.3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>501.6</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1042.7</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="23">
+        <v>59.9</v>
+      </c>
+      <c r="N26" s="23">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="O26" s="23">
+        <v>302.8</v>
+      </c>
+      <c r="P26" s="23">
+        <v>8.9</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>32.6</v>
+      </c>
+      <c r="R26" s="23">
+        <v>535.9</v>
+      </c>
+      <c r="S26" s="23">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="T26" s="23">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="U26" s="23">
+        <v>298.39999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="9">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="C27" s="9">
+        <v>750.6</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2119.5</v>
+      </c>
+      <c r="E27" s="9">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F27" s="9">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G27" s="9">
+        <v>2169.1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>372</v>
+      </c>
+      <c r="I27" s="9">
+        <v>921.7</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2123.8000000000002</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="23">
+        <v>164.8</v>
+      </c>
+      <c r="N27" s="23">
+        <v>339.1</v>
+      </c>
+      <c r="O27" s="23">
+        <v>876.3</v>
+      </c>
+      <c r="P27" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>28.3</v>
+      </c>
+      <c r="R27" s="23">
+        <v>360.2</v>
+      </c>
+      <c r="S27" s="23">
+        <v>186.6</v>
+      </c>
+      <c r="T27" s="23">
+        <v>345.9</v>
+      </c>
+      <c r="U27" s="23">
+        <v>741.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="L17:U17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
+++ b/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="465" windowWidth="18135" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="append &amp; inner" sheetId="1" r:id="rId1"/>
     <sheet name="event &amp; delegate" sheetId="2" r:id="rId2"/>
     <sheet name="zTree v2.5 &amp; v2.6" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
   <si>
     <t>appendChild</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,68 +394,71 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,10 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -771,43 +775,43 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1074,43 +1078,43 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1373,6 +1377,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -1380,13 +1391,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,6 +1400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1629,10 +1634,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1653,71 +1659,71 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="L2" s="36" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="L3" s="28" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="L3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="24" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="30" t="s">
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="35"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39"/>
     </row>
     <row r="4" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="17">
         <v>500</v>
       </c>
@@ -1736,16 +1742,16 @@
       <c r="G4" s="18">
         <v>500</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="20">
         <v>500</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="20">
         <v>1000</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="20">
         <v>2000</v>
       </c>
-      <c r="L4" s="29"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="17">
         <v>500</v>
       </c>
@@ -1764,13 +1770,13 @@
       <c r="R4" s="18">
         <v>500</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="20">
         <v>500</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="20">
         <v>1000</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="20">
         <v>2000</v>
       </c>
     </row>
@@ -1778,210 +1784,498 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="9">
+        <v>26759.4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>90900.2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>306656</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1628.2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3972</v>
+      </c>
+      <c r="G5" s="9">
+        <v>77709.399999999994</v>
+      </c>
+      <c r="H5" s="9">
+        <v>31712.2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>96021.8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>350674.8</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="M5" s="9">
+        <v>2337.8000000000002</v>
+      </c>
+      <c r="N5" s="9">
+        <v>5475.4</v>
+      </c>
+      <c r="O5" s="9">
+        <v>16115.4</v>
+      </c>
+      <c r="P5" s="9">
+        <v>206.4</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>581.4</v>
+      </c>
+      <c r="R5" s="9">
+        <v>6478</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2709.2</v>
+      </c>
+      <c r="T5" s="9">
+        <v>5809.4</v>
+      </c>
+      <c r="U5" s="9">
+        <v>13400</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="9">
+        <v>17693.8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>56559.4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>200870</v>
+      </c>
+      <c r="E6" s="9">
+        <v>775.2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1849.8</v>
+      </c>
+      <c r="G6" s="9">
+        <v>68411.3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>17762.400000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>56343.8</v>
+      </c>
+      <c r="J6" s="9">
+        <v>178057</v>
+      </c>
       <c r="L6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="M6" s="9">
+        <v>1262.4000000000001</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3112.2</v>
+      </c>
+      <c r="O6" s="9">
+        <v>7559.2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>96.8</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>269</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2878</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1218.5999999999999</v>
+      </c>
+      <c r="T6" s="9">
+        <v>2403</v>
+      </c>
+      <c r="U6" s="9">
+        <v>5852.8</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="B7" s="9">
+        <v>13231.2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44075</v>
+      </c>
+      <c r="D7" s="9">
+        <v>155979</v>
+      </c>
+      <c r="E7" s="9">
+        <v>647</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1687.4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>65724.800000000003</v>
+      </c>
+      <c r="H7" s="9">
+        <v>13187.4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>46390.8</v>
+      </c>
+      <c r="J7" s="9">
+        <v>158151</v>
+      </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="M7" s="9">
+        <v>869</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2237.1999999999998</v>
+      </c>
+      <c r="O7" s="9">
+        <v>6065.8</v>
+      </c>
+      <c r="P7" s="9">
+        <v>78.2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>184.4</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2074.8000000000002</v>
+      </c>
+      <c r="S7" s="9">
+        <v>706.2</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1565.6</v>
+      </c>
+      <c r="U7" s="9">
+        <v>5021.6000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="9">
+        <v>1695.3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3413.2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6606.2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>179.6</v>
+      </c>
+      <c r="F8" s="19">
+        <v>393.7</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1758.4</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3415.8</v>
+      </c>
+      <c r="J8" s="19">
+        <v>6175.1</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="M8" s="9">
+        <v>379.3</v>
+      </c>
+      <c r="N8" s="9">
+        <v>732</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1565.9</v>
+      </c>
+      <c r="P8" s="9">
+        <v>54.4</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>122.6</v>
+      </c>
+      <c r="R8" s="10">
+        <v>961.3</v>
+      </c>
+      <c r="S8" s="19">
+        <v>380.6</v>
+      </c>
+      <c r="T8" s="19">
+        <v>750.8</v>
+      </c>
+      <c r="U8" s="19">
+        <v>1532.7</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="9">
+        <v>1049.5999999999999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2053.4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4176.8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>144</v>
+      </c>
+      <c r="F9" s="9">
+        <v>283.5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2664</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1073.2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2182.5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4216.3999999999996</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="M9" s="9">
+        <v>184.3</v>
+      </c>
+      <c r="N9" s="9">
+        <v>344.7</v>
+      </c>
+      <c r="O9" s="9">
+        <v>670.1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>44</v>
+      </c>
+      <c r="R9" s="10">
+        <v>562.9</v>
+      </c>
+      <c r="S9" s="9">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="T9" s="9">
+        <v>352.2</v>
+      </c>
+      <c r="U9" s="9">
+        <v>656.4</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="B10" s="9">
+        <v>450</v>
+      </c>
+      <c r="C10" s="9">
+        <v>872</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1653.4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>104.6</v>
+      </c>
+      <c r="G10" s="9">
+        <v>663.8</v>
+      </c>
+      <c r="H10" s="9">
+        <v>461.4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>944.9</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1883</v>
+      </c>
       <c r="L10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="M10" s="9">
+        <v>106.3</v>
+      </c>
+      <c r="N10" s="9">
+        <v>232.3</v>
+      </c>
+      <c r="O10" s="9">
+        <v>490.6</v>
+      </c>
+      <c r="P10" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="R10" s="9">
+        <v>685.7</v>
+      </c>
+      <c r="S10" s="9">
+        <v>124.6</v>
+      </c>
+      <c r="T10" s="9">
+        <v>242.4</v>
+      </c>
+      <c r="U10" s="9">
+        <v>477.2</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="B11" s="9">
+        <v>547.20000000000005</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1111.0999999999999</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2277.9</v>
+      </c>
+      <c r="E11" s="9">
+        <v>63.5</v>
+      </c>
+      <c r="F11" s="9">
+        <v>126</v>
+      </c>
+      <c r="G11" s="9">
+        <v>844.4</v>
+      </c>
+      <c r="H11" s="9">
+        <v>566.70000000000005</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1406.7</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2396.8000000000002</v>
+      </c>
       <c r="L11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="M11" s="9">
+        <v>127.9</v>
+      </c>
+      <c r="N11" s="9">
+        <v>249.8</v>
+      </c>
+      <c r="O11" s="9">
+        <v>489.6</v>
+      </c>
+      <c r="P11" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>38.6</v>
+      </c>
+      <c r="R11" s="9">
+        <v>691.7</v>
+      </c>
+      <c r="S11" s="9">
+        <v>117.7</v>
+      </c>
+      <c r="T11" s="9">
+        <v>227.2</v>
+      </c>
+      <c r="U11" s="9">
+        <v>459</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="B12" s="9">
+        <v>884.6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2767.8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12468.3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>55.1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>137.6</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3596.4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>859.5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3610.7</v>
+      </c>
+      <c r="J12" s="9">
+        <v>14403</v>
+      </c>
       <c r="L12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="M12" s="9">
+        <v>326.8</v>
+      </c>
+      <c r="N12" s="9">
+        <v>661.5</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1530.4</v>
+      </c>
+      <c r="P12" s="9">
+        <v>24.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>53</v>
+      </c>
+      <c r="R12" s="9">
+        <v>614.4</v>
+      </c>
+      <c r="S12" s="9">
+        <v>213.1</v>
+      </c>
+      <c r="T12" s="9">
+        <v>528.20000000000005</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1362.9</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
@@ -1989,71 +2283,71 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="L17" s="36" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="L17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="38"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
     </row>
     <row r="18" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="24" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="30" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="L18" s="28" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="L18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="24" t="s">
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="30" t="s">
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="39"/>
     </row>
     <row r="19" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="17">
         <v>500</v>
       </c>
@@ -2072,16 +2366,16 @@
       <c r="G19" s="18">
         <v>500</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="20">
         <v>500</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="20">
         <v>1000</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="20">
         <v>2000</v>
       </c>
-      <c r="L19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="17">
         <v>500</v>
       </c>
@@ -2100,13 +2394,13 @@
       <c r="R19" s="18">
         <v>500</v>
       </c>
-      <c r="S19" s="31">
+      <c r="S19" s="20">
         <v>500</v>
       </c>
-      <c r="T19" s="31">
+      <c r="T19" s="20">
         <v>1000</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="20">
         <v>2000</v>
       </c>
     </row>
@@ -2144,31 +2438,31 @@
       <c r="L20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="19">
         <v>1069</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="19">
         <v>2803.1</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="19">
         <v>8848.5</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="40">
         <v>659.4</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="40">
         <v>2242.5</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="40">
         <v>18237.8</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="40">
         <v>2239</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="40">
         <v>5295.4</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="40">
         <v>10145.200000000001</v>
       </c>
     </row>
@@ -2206,31 +2500,31 @@
       <c r="L21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="19">
         <v>528.20000000000005</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="19">
         <v>1637.7</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="40">
         <v>7515.5</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="19">
         <v>50.1</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="19">
         <v>126.6</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="19">
         <v>1624.9</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="19">
         <v>465.9</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="19">
         <v>1137.4000000000001</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="19">
         <v>3014</v>
       </c>
     </row>
@@ -2268,31 +2562,31 @@
       <c r="L22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="19">
         <v>448.5</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="19">
         <v>1501.7</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="40">
         <v>7228.2</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="19">
         <v>43.8</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="19">
         <v>114.1</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="40">
         <v>1557.8</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="19">
         <v>459.3</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="19">
         <v>896.8</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="19">
         <v>3217.2</v>
       </c>
     </row>
@@ -2312,50 +2606,50 @@
       <c r="E23" s="9">
         <v>77.2</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="19">
         <v>172.8</v>
       </c>
       <c r="G23" s="10">
         <v>1983.3</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="19">
         <v>609.1</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="19">
         <v>1221.8</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="19">
         <v>2501.5</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="19">
         <v>229.2</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="19">
         <v>473.8</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="19">
         <v>942.8</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="19">
         <v>30.3</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="19">
         <v>88</v>
       </c>
       <c r="R23" s="10">
         <v>510.8</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="19">
         <v>231.9</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="19">
         <v>478.5</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="19">
         <v>931.1</v>
       </c>
     </row>
@@ -2378,7 +2672,7 @@
       <c r="F24" s="9">
         <v>92.8</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="9">
@@ -2393,31 +2687,31 @@
       <c r="L24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="19">
         <v>82.7</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="19">
         <v>167</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="19">
         <v>336.4</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="19">
         <v>10</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="19">
         <v>21</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="12">
         <v>195</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="19">
         <v>79.3</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T24" s="19">
         <v>157.1</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="19">
         <v>312.7</v>
       </c>
     </row>
@@ -2455,31 +2749,31 @@
       <c r="L25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="19">
         <v>65.900000000000006</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="19">
         <v>137</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="19">
         <v>292</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="19">
         <v>19</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="19">
         <v>365.9</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="19">
         <v>72.5</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="19">
         <v>137.5</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="19">
         <v>300.2</v>
       </c>
     </row>
@@ -2517,31 +2811,31 @@
       <c r="L26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="19">
         <v>59.9</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="19">
         <v>155.30000000000001</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="19">
         <v>302.8</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="19">
         <v>8.9</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="19">
         <v>32.6</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="19">
         <v>535.9</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="19">
         <v>71.400000000000006</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="19">
         <v>146.69999999999999</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="19">
         <v>298.39999999999998</v>
       </c>
     </row>
@@ -2579,36 +2873,46 @@
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="19">
         <v>164.8</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="19">
         <v>339.1</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="19">
         <v>876.3</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="19">
         <v>14</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="19">
         <v>28.3</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="19">
         <v>360.2</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="19">
         <v>186.6</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="19">
         <v>345.9</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="19">
         <v>741.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="L17:U17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:D18"/>
@@ -2618,17 +2922,7 @@
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="S18:U18"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
     <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
+++ b/trunk/zTreeAPI/WebContent/jsTest/initDomTest/result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="465" windowWidth="18135" windowHeight="12210" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="event &amp; delegate" sheetId="2" r:id="rId2"/>
     <sheet name="zTree v2.5 &amp; v2.6" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="27">
   <si>
     <t>appendChild</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,18 +403,27 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,17 +457,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,15 +775,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
@@ -792,15 +792,15 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="25" t="s">
         <v>0</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1078,15 +1078,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="25" t="s">
         <v>12</v>
       </c>
@@ -1095,15 +1095,15 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="25" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1377,6 +1377,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:I17"/>
@@ -1384,13 +1391,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1659,71 +1659,71 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="L2" s="26" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="L2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="L3" s="29" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="L3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37" t="s">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
     </row>
     <row r="4" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="17">
         <v>500</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="J4" s="20">
         <v>2000</v>
       </c>
-      <c r="L4" s="30"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="17">
         <v>500</v>
       </c>
@@ -2283,71 +2283,71 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="L17" s="26" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="L17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="31"/>
     </row>
     <row r="18" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37" t="s">
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="L18" s="29" t="s">
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="L18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34" t="s">
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37" t="s">
+      <c r="Q18" s="38"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="39"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
     </row>
     <row r="19" spans="1:21" ht="34.5" customHeight="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="17">
         <v>500</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="J19" s="20">
         <v>2000</v>
       </c>
-      <c r="L19" s="30"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="17">
         <v>500</v>
       </c>
@@ -2445,25 +2445,25 @@
         <v>2803.1</v>
       </c>
       <c r="O20" s="19">
-        <v>8848.5</v>
-      </c>
-      <c r="P20" s="40">
-        <v>659.4</v>
-      </c>
-      <c r="Q20" s="40">
-        <v>2242.5</v>
-      </c>
-      <c r="R20" s="40">
-        <v>18237.8</v>
-      </c>
-      <c r="S20" s="40">
-        <v>2239</v>
-      </c>
-      <c r="T20" s="40">
-        <v>5295.4</v>
-      </c>
-      <c r="U20" s="40">
-        <v>10145.200000000001</v>
+        <v>6468.7</v>
+      </c>
+      <c r="P20" s="19">
+        <v>87.4</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>246.8</v>
+      </c>
+      <c r="R20" s="19">
+        <v>2737.4</v>
+      </c>
+      <c r="S20" s="19">
+        <v>890.3</v>
+      </c>
+      <c r="T20" s="19">
+        <v>2028.2</v>
+      </c>
+      <c r="U20" s="19">
+        <v>4291.7</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17.25" customHeight="1">
@@ -2471,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="9">
-        <v>3241.9</v>
+        <v>4088.3</v>
       </c>
       <c r="C21" s="9">
         <v>12817.3</v>
@@ -2489,7 +2489,7 @@
         <v>28667.200000000001</v>
       </c>
       <c r="H21" s="9">
-        <v>3314</v>
+        <v>3807.3</v>
       </c>
       <c r="I21" s="9">
         <v>16223.3</v>
@@ -2504,10 +2504,10 @@
         <v>528.20000000000005</v>
       </c>
       <c r="N21" s="19">
-        <v>1637.7</v>
-      </c>
-      <c r="O21" s="40">
-        <v>7515.5</v>
+        <v>1234</v>
+      </c>
+      <c r="O21" s="19">
+        <v>3075</v>
       </c>
       <c r="P21" s="19">
         <v>50.1</v>
@@ -2522,10 +2522,10 @@
         <v>465.9</v>
       </c>
       <c r="T21" s="19">
-        <v>1137.4000000000001</v>
+        <v>896</v>
       </c>
       <c r="U21" s="19">
-        <v>3014</v>
+        <v>1958.3</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="17.25" customHeight="1">
@@ -2568,8 +2568,8 @@
       <c r="N22" s="19">
         <v>1501.7</v>
       </c>
-      <c r="O22" s="40">
-        <v>7228.2</v>
+      <c r="O22" s="19">
+        <v>2468.6999999999998</v>
       </c>
       <c r="P22" s="19">
         <v>43.8</v>
@@ -2577,17 +2577,17 @@
       <c r="Q22" s="19">
         <v>114.1</v>
       </c>
-      <c r="R22" s="40">
-        <v>1557.8</v>
+      <c r="R22" s="19">
+        <v>937.3</v>
       </c>
       <c r="S22" s="19">
         <v>459.3</v>
       </c>
       <c r="T22" s="19">
-        <v>896.8</v>
+        <v>797.3</v>
       </c>
       <c r="U22" s="19">
-        <v>3217.2</v>
+        <v>1765.7</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="17.25" customHeight="1">
@@ -2672,8 +2672,8 @@
       <c r="F24" s="9">
         <v>92.8</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>26</v>
+      <c r="G24" s="40">
+        <v>832.2</v>
       </c>
       <c r="H24" s="9">
         <v>345.8</v>
@@ -2702,7 +2702,7 @@
       <c r="Q24" s="19">
         <v>21</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="19">
         <v>195</v>
       </c>
       <c r="S24" s="19">
@@ -2903,6 +2903,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L17:U17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="L2:U2"/>
@@ -2913,16 +2923,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="L17:U17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
